--- a/biology/Botanique/Flor_61/Flor_61.xlsx
+++ b/biology/Botanique/Flor_61/Flor_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flor 61, abréviation de « Fleurs du monde entier à Turin » en italien, est l'exposition internationale qui s'est tenue du 28 avril au 15 juin 1961 dans le parc du Valentino, à Turin, au Piémont, pour les célébrations du centenaire de l'unité italienne.
 Cette exposition est réalisée d'après le projet du chevalier du travail Giuseppe Ratti.
@@ -512,9 +524,11 @@
           <t>Organisation de l'exposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq salons du Palais des Expositions du Valentino sont réservés aux différentes sections: plantes d'appartement et de serre chaude, fleurs coupées, compositions florales, produits de jardinage y sont exposés sur une superficie de 45 000 mètres carrés. Les expositions « Les fleurs dans la philatélie », « Photographies de fleurs et jardins » et « Les plantes dans la maison »[1] complètent la manifestation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq salons du Palais des Expositions du Valentino sont réservés aux différentes sections: plantes d'appartement et de serre chaude, fleurs coupées, compositions florales, produits de jardinage y sont exposés sur une superficie de 45 000 mètres carrés. Les expositions « Les fleurs dans la philatélie », « Photographies de fleurs et jardins » et « Les plantes dans la maison » complètent la manifestation.
 À l'extérieur, sur une superficie de 140 000 mètres carrés, a lieu l'exposition du jardin.
 Il a fallu neuf mois de travail pour la construction des ponts, des terrasses, des routes, pour l'aménagement des cours d'eau, l'installation d'une cabine électrique, d'un bassin et d'une serre.
 Pour l'occasion le projet d'éclairage du parc, de ses fontaines et de ses chemins, est accompli par Guido Chiarelli, ingénieur en chef à la Mairie.
